--- a/StructureDefinition-VunsPneumoBioReport.xlsx
+++ b/StructureDefinition-VunsPneumoBioReport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T16:55:56+02:00</t>
+    <t>2025-05-28T10:00:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VunsPneumoBioReport.xlsx
+++ b/StructureDefinition-VunsPneumoBioReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T10:00:58+02:00</t>
+    <t>2025-04-14</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,13 +81,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil pour un rapport de biologie d'intérêt pneumologique</t>
+    <t>Profil pour un rapport de biologies d'intérêt pneumologique</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>RM@H IG (C) 2025-2025 University Hospital of Liege, GSI Department, Belgium. This implementation guide is free software: you can redistribute it and/or modify it under the terms of the GNU General Public License as published by the Free Software Foundation, either version 3 of the License, or (at your option) any later version. This program is distributed in the hope that it will be useful, but WITHOUT ANY WARRANTY; without even the implied warranty of MERCHANTABILITY or FITNESS FOR A PARTICULAR PURPOSE. See the GNU General Public License for more details. You should have received a copy of the GNU General Public License along with this program. If not, see &lt;http://www.gnu.org/licenses/&gt;.</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -446,6 +449,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -492,6 +505,10 @@
     <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -527,6 +544,10 @@
     <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>Event.basedOn</t>
   </si>
   <si>
@@ -570,6 +591,10 @@
   </si>
   <si>
     <t>DiagnosticReport.category</t>
+  </si>
+  <si>
+    <t>Department
+Sub-departmentServiceDiscipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
@@ -594,14 +619,13 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
+    <t>OBR-24</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
   </si>
   <si>
     <t>DiagnosticReport.category.id</t>
@@ -629,16 +653,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -664,10 +678,10 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>CV</t>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
   </si>
   <si>
     <t>DiagnosticReport.category.coding.id</t>
@@ -757,6 +771,9 @@
     <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
@@ -772,19 +789,7 @@
     <t>DiagnosticReport.category.coding.display.id</t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category.coding.display.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>DiagnosticReport.category.coding.display.extension:translation</t>
@@ -812,9 +817,6 @@
     <t>Primitive value for string</t>
   </si>
   <si>
-    <t>The actual value</t>
-  </si>
-  <si>
     <t>1048576</t>
   </si>
   <si>
@@ -876,10 +878,26 @@
     <t>DiagnosticReport.code</t>
   </si>
   <si>
+    <t xml:space="preserve">Type
+</t>
+  </si>
+  <si>
     <t>Codes that describe Diagnostic Reports.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
   </si>
   <si>
     <t>DiagnosticReport.code.id</t>
@@ -917,6 +935,9 @@
     <t>The subject of the report. Usually, but not always, this is a patient. However, diagnostic services also perform analyses on specimens collected from a variety of other sources.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>SHALL know the subject context.</t>
   </si>
   <si>
@@ -1000,6 +1021,9 @@
     <t>Reference.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
     <t>.identifier</t>
   </si>
   <si>
@@ -1431,6 +1455,10 @@
   </si>
   <si>
     <t>Gives laboratory the ability to provide its own fully formatted report for clinical fidelity.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>text (type=ED)</t>
@@ -1694,54 +1722,56 @@
       <c r="A14" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1803,143 +1833,143 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>19</v>
@@ -1951,16 +1981,16 @@
         <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2010,28 +2040,28 @@
         <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>19</v>
@@ -2039,10 +2069,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2050,10 +2080,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>19</v>
@@ -2062,19 +2092,19 @@
         <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2124,13 +2154,13 @@
         <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>19</v>
@@ -2153,10 +2183,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2164,10 +2194,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>19</v>
@@ -2176,16 +2206,16 @@
         <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2236,19 +2266,19 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>19</v>
@@ -2265,10 +2295,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2276,31 +2306,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2350,19 +2380,19 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>19</v>
@@ -2379,10 +2409,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2390,10 +2420,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>19</v>
@@ -2405,16 +2435,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2440,13 +2470,13 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>19</v>
@@ -2464,19 +2494,19 @@
         <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>19</v>
@@ -2493,21 +2523,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>19</v>
@@ -2519,16 +2549,16 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2578,19 +2608,19 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>19</v>
@@ -2599,7 +2629,7 @@
         <v>19</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>19</v>
@@ -2607,21 +2637,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>19</v>
@@ -2633,16 +2663,16 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2692,13 +2722,13 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>19</v>
@@ -2713,7 +2743,7 @@
         <v>19</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>19</v>
@@ -2721,21 +2751,21 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>19</v>
@@ -2747,16 +2777,16 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2794,31 +2824,31 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>19</v>
@@ -2827,7 +2857,7 @@
         <v>19</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>19</v>
@@ -2835,45 +2865,45 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -2910,31 +2940,31 @@
         <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>19</v>
@@ -2943,7 +2973,7 @@
         <v>19</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>19</v>
@@ -2951,21 +2981,21 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>19</v>
@@ -2974,22 +3004,22 @@
         <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>19</v>
@@ -3038,50 +3068,50 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>19</v>
@@ -3093,19 +3123,19 @@
         <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>19</v>
@@ -3154,28 +3184,28 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>19</v>
@@ -3183,10 +3213,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3194,39 +3224,39 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>19</v>
@@ -3244,95 +3274,95 @@
         <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Z13" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AG13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3358,63 +3388,63 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>19</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3422,10 +3452,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>19</v>
@@ -3437,13 +3467,13 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3494,13 +3524,13 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>19</v>
@@ -3515,7 +3545,7 @@
         <v>19</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>19</v>
@@ -3523,21 +3553,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
@@ -3549,16 +3579,16 @@
         <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3596,31 +3626,31 @@
         <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>19</v>
@@ -3629,7 +3659,7 @@
         <v>19</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>19</v>
@@ -3637,10 +3667,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3648,34 +3678,34 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -3724,28 +3754,28 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>19</v>
@@ -3753,10 +3783,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3764,10 +3794,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>19</v>
@@ -3779,13 +3809,13 @@
         <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3836,13 +3866,13 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>19</v>
@@ -3857,7 +3887,7 @@
         <v>19</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>19</v>
@@ -3865,21 +3895,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -3891,16 +3921,16 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3938,31 +3968,31 @@
         <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
@@ -3971,7 +4001,7 @@
         <v>19</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>19</v>
@@ -3979,10 +4009,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3990,34 +4020,34 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -4027,7 +4057,7 @@
         <v>19</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>19</v>
@@ -4066,28 +4096,28 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>19</v>
@@ -4095,10 +4125,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4106,10 +4136,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -4118,19 +4148,19 @@
         <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4180,28 +4210,28 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>19</v>
@@ -4209,10 +4239,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4220,32 +4250,32 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4255,7 +4285,7 @@
         <v>19</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>19</v>
@@ -4294,28 +4324,28 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>19</v>
@@ -4323,10 +4353,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4334,32 +4364,34 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4408,28 +4440,28 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>19</v>
@@ -4437,10 +4469,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4448,10 +4480,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -4463,13 +4495,13 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4520,13 +4552,13 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>19</v>
@@ -4541,7 +4573,7 @@
         <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>19</v>
@@ -4549,21 +4581,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>19</v>
@@ -4575,15 +4607,17 @@
         <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4620,29 +4654,31 @@
         <v>19</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>19</v>
@@ -4651,7 +4687,7 @@
         <v>19</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>19</v>
@@ -4659,23 +4695,23 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="B26" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="C26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
@@ -4687,15 +4723,17 @@
         <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -4744,19 +4782,19 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>19</v>
@@ -4765,7 +4803,7 @@
         <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>19</v>
@@ -4773,10 +4811,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4784,10 +4822,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>19</v>
@@ -4799,10 +4837,10 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>256</v>
@@ -4859,10 +4897,10 @@
         <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>19</v>
@@ -4896,10 +4934,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>19</v>
@@ -4908,7 +4946,7 @@
         <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>260</v>
@@ -4975,16 +5013,16 @@
         <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
@@ -5012,22 +5050,22 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>269</v>
@@ -5091,16 +5129,16 @@
         <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
@@ -5124,35 +5162,35 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5178,13 +5216,13 @@
         <v>19</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>19</v>
@@ -5205,36 +5243,36 @@
         <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>187</v>
+        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>19</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5242,10 +5280,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
@@ -5257,13 +5295,13 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5314,13 +5352,13 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>19</v>
@@ -5335,7 +5373,7 @@
         <v>19</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>19</v>
@@ -5343,21 +5381,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -5369,16 +5407,16 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5416,31 +5454,31 @@
         <v>19</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>19</v>
@@ -5449,7 +5487,7 @@
         <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>19</v>
@@ -5457,10 +5495,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5468,34 +5506,34 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -5505,7 +5543,7 @@
         <v>19</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>19</v>
@@ -5544,28 +5582,28 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>19</v>
@@ -5573,10 +5611,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5584,22 +5622,22 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>269</v>
@@ -5663,16 +5701,16 @@
         <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
@@ -5689,43 +5727,45 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5774,39 +5814,39 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5814,10 +5854,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>19</v>
@@ -5829,13 +5869,13 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5886,13 +5926,13 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>19</v>
@@ -5907,7 +5947,7 @@
         <v>19</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>19</v>
@@ -5915,21 +5955,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>19</v>
@@ -5941,16 +5981,16 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5988,31 +6028,31 @@
         <v>19</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>19</v>
@@ -6021,7 +6061,7 @@
         <v>19</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>19</v>
@@ -6029,10 +6069,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6040,31 +6080,31 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6114,19 +6154,19 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
@@ -6135,7 +6175,7 @@
         <v>19</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>19</v>
@@ -6143,10 +6183,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6154,10 +6194,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -6166,19 +6206,19 @@
         <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6204,13 +6244,13 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -6228,19 +6268,19 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
@@ -6249,7 +6289,7 @@
         <v>19</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>19</v>
@@ -6257,10 +6297,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6268,10 +6308,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
@@ -6280,19 +6320,19 @@
         <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6342,28 +6382,28 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>19</v>
@@ -6371,10 +6411,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6382,10 +6422,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
@@ -6394,19 +6434,19 @@
         <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6456,19 +6496,19 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
@@ -6477,7 +6517,7 @@
         <v>19</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>19</v>
@@ -6485,21 +6525,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>19</v>
@@ -6508,22 +6548,22 @@
         <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6572,74 +6612,74 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6688,39 +6728,39 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6728,10 +6768,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>19</v>
@@ -6743,13 +6783,13 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6800,13 +6840,13 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>19</v>
@@ -6821,7 +6861,7 @@
         <v>19</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>19</v>
@@ -6829,21 +6869,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -6855,16 +6895,16 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6902,31 +6942,31 @@
         <v>19</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
@@ -6935,7 +6975,7 @@
         <v>19</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>19</v>
@@ -6943,26 +6983,26 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>19</v>
@@ -6971,15 +7011,17 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7028,19 +7070,19 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
@@ -7049,7 +7091,7 @@
         <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>19</v>
@@ -7057,21 +7099,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>19</v>
@@ -7080,22 +7122,22 @@
         <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -7144,74 +7186,74 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7260,50 +7302,50 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -7312,22 +7354,22 @@
         <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -7376,39 +7418,39 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7416,10 +7458,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>19</v>
@@ -7431,19 +7473,19 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7492,28 +7534,28 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>19</v>
@@ -7521,24 +7563,24 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>19</v>
@@ -7547,19 +7589,19 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7596,38 +7638,38 @@
         <v>19</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>19</v>
@@ -7635,26 +7677,26 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>19</v>
@@ -7663,19 +7705,19 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -7724,28 +7766,28 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>19</v>
@@ -7753,10 +7795,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7764,10 +7806,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>19</v>
@@ -7779,16 +7821,16 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7838,19 +7880,19 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>19</v>
@@ -7859,7 +7901,7 @@
         <v>19</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>19</v>
@@ -7867,21 +7909,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>19</v>
@@ -7890,20 +7932,20 @@
         <v>19</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -7952,28 +7994,28 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>19</v>
@@ -7981,10 +8023,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7992,10 +8034,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>19</v>
@@ -8007,13 +8049,13 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8064,13 +8106,13 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>19</v>
@@ -8085,7 +8127,7 @@
         <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>19</v>
@@ -8093,21 +8135,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>19</v>
@@ -8119,16 +8161,16 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8166,31 +8208,31 @@
         <v>19</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>19</v>
@@ -8199,7 +8241,7 @@
         <v>19</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>19</v>
@@ -8207,45 +8249,45 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -8294,19 +8336,19 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
@@ -8315,7 +8357,7 @@
         <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>19</v>
@@ -8323,10 +8365,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8334,10 +8376,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -8349,19 +8391,19 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8410,19 +8452,19 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
@@ -8431,7 +8473,7 @@
         <v>19</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>19</v>
@@ -8439,10 +8481,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8450,10 +8492,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
@@ -8462,18 +8504,20 @@
         <v>19</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -8522,19 +8566,19 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>19</v>
@@ -8543,7 +8587,7 @@
         <v>19</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>19</v>
@@ -8551,21 +8595,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>19</v>
@@ -8577,17 +8621,19 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8636,28 +8682,28 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>19</v>
@@ -8665,10 +8711,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8676,10 +8722,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>19</v>
@@ -8691,15 +8737,17 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -8724,52 +8772,52 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="Z61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AA61" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>436</v>
-      </c>
       <c r="AM61" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>19</v>
@@ -8777,10 +8825,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8788,10 +8836,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>19</v>
@@ -8803,19 +8851,19 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>19</v>
@@ -8864,28 +8912,28 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>458</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>19</v>
